--- a/supplementary-material/inputs/instruments.xlsx
+++ b/supplementary-material/inputs/instruments.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5432CF-9838-A746-BF3C-809C0A473E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7FEA3-1944-314D-89BF-7AE14582CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{FE8D09C8-B55D-7349-9A3F-18ECAE9B2E78}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{FE8D09C8-B55D-7349-9A3F-18ECAE9B2E78}"/>
   </bookViews>
   <sheets>
     <sheet name="instruments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>Construct</t>
   </si>
@@ -197,9 +197,6 @@
     <t>tsemberis2007measuringhomelessnessresidential</t>
   </si>
   <si>
-    <t>kerman2019predictorsmentalhealth</t>
-  </si>
-  <si>
     <t>dennis2006developmentvalidationgain</t>
   </si>
   <si>
@@ -224,15 +221,9 @@
     <t>conrad2001reliabilityvaliditymodified</t>
   </si>
   <si>
-    <t>kerman2018effectshousingstability</t>
-  </si>
-  <si>
     <t>miller1996form90structured</t>
   </si>
   <si>
-    <t>rosenberg2015societyadolescentselfimage</t>
-  </si>
-  <si>
     <t>lee1995measuringbelongingnesssocial</t>
   </si>
   <si>
@@ -249,6 +240,21 @@
   </si>
   <si>
     <t>stergiopoulos2014housingfirstexploring</t>
+  </si>
+  <si>
+    <t>caffaro2016developmentvalidationperception</t>
+  </si>
+  <si>
+    <t>rosenberg1965societyadolescentselfimage</t>
+  </si>
+  <si>
+    <t>Evidence of validation identified</t>
+  </si>
+  <si>
+    <t>Evidence of validation among population with complex needs identified</t>
+  </si>
+  <si>
+    <t>Evidence of validation for homeless youth population identified'</t>
   </si>
 </sst>
 </file>
@@ -284,8 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,41 +629,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7D67E0-B648-A64C-B0F3-E3B4712797A6}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -665,16 +683,25 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -685,16 +712,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -708,13 +744,22 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -728,13 +773,22 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -745,16 +799,25 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -768,13 +831,22 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -785,16 +857,25 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -805,16 +886,25 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -828,13 +918,22 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -845,16 +944,25 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -868,13 +976,22 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -885,16 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -905,16 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -925,16 +1060,25 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -945,16 +1089,25 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -968,13 +1121,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -985,16 +1147,25 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1005,16 +1176,25 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1025,16 +1205,25 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1045,13 +1234,22 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
-        <v>59</v>
+      <c r="I21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary-material/inputs/instruments.xlsx
+++ b/supplementary-material/inputs/instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7FEA3-1944-314D-89BF-7AE14582CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328130F-C00B-2F4D-8768-9C877526BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{FE8D09C8-B55D-7349-9A3F-18ECAE9B2E78}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Evidence of validation among population with complex needs identified</t>
   </si>
   <si>
-    <t>Evidence of validation for homeless youth population identified'</t>
+    <t>Evidence of validation for homeless youth population identified</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
